--- a/outputs/1/outputsRice_Leaves/AlexNet/model_results.xlsx
+++ b/outputs/1/outputsRice_Leaves/AlexNet/model_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.02788720838725567</v>
+        <v>0.2883943915367126</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05577442049980164</v>
+        <v>0.5765491127967834</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.03191406652331352</v>
+        <v>0.1623783111572266</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06382813304662704</v>
+        <v>0.3246472775936127</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -549,10 +549,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.01994750462472439</v>
+        <v>0.1629025638103485</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03989500924944878</v>
+        <v>0.3257364928722382</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -581,10 +581,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.02788720838725567</v>
+        <v>0.284688413143158</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05577442049980164</v>
+        <v>0.5691431164741516</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.03191406652331352</v>
+        <v>0.1578995436429977</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06382813304662704</v>
+        <v>0.315693587064743</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -645,10 +645,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.01994750462472439</v>
+        <v>0.1577875763177872</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03989500924944878</v>
+        <v>0.3155092298984528</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -677,10 +677,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.02788720838725567</v>
+        <v>0.2849020659923553</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05577442049980164</v>
+        <v>0.5695700645446777</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.03191406652331352</v>
+        <v>0.1581483036279678</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06382813304662704</v>
+        <v>0.3161908686161041</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.01994750462472439</v>
+        <v>0.1580726802349091</v>
       </c>
       <c r="D10" t="n">
-        <v>0.03989500924944878</v>
+        <v>0.3160792887210846</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.02894743904471397</v>
+        <v>0.2865711450576782</v>
       </c>
       <c r="D11" t="n">
-        <v>0.05767625570297241</v>
+        <v>0.5729055404663086</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -805,10 +805,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.03272146731615067</v>
+        <v>0.1611527502536774</v>
       </c>
       <c r="D12" t="n">
-        <v>0.06525451689958572</v>
+        <v>0.3221971988677979</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0217854268848896</v>
+        <v>0.160614401102066</v>
       </c>
       <c r="D13" t="n">
-        <v>0.04329358041286469</v>
+        <v>0.3211613893508911</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -869,10 +869,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.03050975315272808</v>
+        <v>0.3086776733398438</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0604780800640583</v>
+        <v>0.6170796751976013</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -901,10 +901,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.03630830720067024</v>
+        <v>0.1905404925346375</v>
       </c>
       <c r="D15" t="n">
-        <v>0.07158832997083664</v>
+        <v>0.3809480965137482</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.02526576444506645</v>
+        <v>0.1948878020048141</v>
       </c>
       <c r="D16" t="n">
-        <v>0.04972685500979424</v>
+        <v>0.3896883428096771</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -965,10 +965,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.04113461822271347</v>
+        <v>0.3213522136211395</v>
       </c>
       <c r="D17" t="n">
-        <v>0.07951104640960693</v>
+        <v>0.6424028277397156</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.05302352085709572</v>
+        <v>0.210924044251442</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1010426133871078</v>
+        <v>0.4216945767402649</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1029,10 +1029,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.04307795315980911</v>
+        <v>0.2184539586305618</v>
       </c>
       <c r="D19" t="n">
-        <v>0.08260154724121094</v>
+        <v>0.4368050098419189</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1061,10 +1061,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.04353039711713791</v>
+        <v>0.3268977999687195</v>
       </c>
       <c r="D20" t="n">
-        <v>0.08379746973514557</v>
+        <v>0.6534815430641174</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1093,10 +1093,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.05697368830442429</v>
+        <v>0.2147042751312256</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1079877316951752</v>
+        <v>0.4292510151863098</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1125,10 +1125,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.04682733118534088</v>
+        <v>0.2222796231508255</v>
       </c>
       <c r="D22" t="n">
-        <v>0.08951027691364288</v>
+        <v>0.4444535970687866</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1157,10 +1157,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.03779022768139839</v>
+        <v>0.3276263773441315</v>
       </c>
       <c r="D23" t="n">
-        <v>0.07352413237094879</v>
+        <v>0.6549370288848877</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.04767565801739693</v>
+        <v>0.2155440598726273</v>
       </c>
       <c r="D24" t="n">
-        <v>0.09163043648004532</v>
+        <v>0.4309296607971191</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1221,10 +1221,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.03780510276556015</v>
+        <v>0.2231665849685669</v>
       </c>
       <c r="D25" t="n">
-        <v>0.07287886738777161</v>
+        <v>0.4462268948554993</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1253,10 +1253,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.03809233009815216</v>
+        <v>0.3343321084976196</v>
       </c>
       <c r="D26" t="n">
-        <v>0.07406508922576904</v>
+        <v>0.6683323979377747</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1285,10 +1285,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.04945575073361397</v>
+        <v>0.2237406224012375</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0947645977139473</v>
+        <v>0.4473136365413666</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1317,10 +1317,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.03926234692335129</v>
+        <v>0.2325976192951202</v>
       </c>
       <c r="D28" t="n">
-        <v>0.07556666433811188</v>
+        <v>0.4650852084159851</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1349,10 +1349,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.03845676779747009</v>
+        <v>0.3422797322273254</v>
       </c>
       <c r="D29" t="n">
-        <v>0.07471764087677002</v>
+        <v>0.6842069625854492</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1381,10 +1381,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.04985953122377396</v>
+        <v>0.236356258392334</v>
       </c>
       <c r="D30" t="n">
-        <v>0.09547536075115204</v>
+        <v>0.4725300371646881</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1413,10 +1413,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.03914922475814819</v>
+        <v>0.2462553977966309</v>
       </c>
       <c r="D31" t="n">
-        <v>0.07535804808139801</v>
+        <v>0.4923902153968811</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.03322017192840576</v>
+        <v>0.3452506363391876</v>
       </c>
       <c r="D32" t="n">
-        <v>0.06533699482679367</v>
+        <v>0.6901404857635498</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.04093343764543533</v>
+        <v>0.2409754544496536</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07974877953529358</v>
+        <v>0.481762707233429</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1509,10 +1509,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.02961464412510395</v>
+        <v>0.2510240972042084</v>
       </c>
       <c r="D34" t="n">
-        <v>0.05776116624474525</v>
+        <v>0.501923680305481</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1541,10 +1541,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.03146900236606598</v>
+        <v>0.335613340139389</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0621979832649231</v>
+        <v>0.6708916425704956</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1573,10 +1573,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.03767861425876617</v>
+        <v>0.2259493768215179</v>
       </c>
       <c r="D36" t="n">
-        <v>0.07400686293840408</v>
+        <v>0.4517286419868469</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1605,10 +1605,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.02649714983999729</v>
+        <v>0.2350461930036545</v>
       </c>
       <c r="D37" t="n">
-        <v>0.05200227349996567</v>
+        <v>0.4699805080890656</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1622,6 +1622,390 @@
         <v>0.2</v>
       </c>
       <c r="H37" t="inlineStr">
+        <is>
+          <t>Rice_Leaves</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>13</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Brown_Spot</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.2557420134544373</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.4820416569709778</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>AlexNet</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Rice_Leaves</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>13</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Leaf_Smut</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.169705331325531</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.3294213116168976</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>AlexNet</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Rice_Leaves</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>13</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Bacterial_Leaf_Blight</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.1580170094966888</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.3039356470108032</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>AlexNet</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Rice_Leaves</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>14</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Brown_Spot</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.2266286462545395</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.4223713874816895</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>AlexNet</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Rice_Leaves</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>14</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Leaf_Smut</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.1476332992315292</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.2793621122837067</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>AlexNet</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Rice_Leaves</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>14</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Bacterial_Leaf_Blight</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.1427096724510193</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.2718857228755951</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>AlexNet</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Rice_Leaves</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>15</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Brown_Spot</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.228816345334053</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.4249403178691864</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>AlexNet</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Rice_Leaves</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>15</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Leaf_Smut</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.1581733971834183</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.298048198223114</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>AlexNet</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Rice_Leaves</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>15</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Bacterial_Leaf_Blight</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.1519406735897064</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.2882284820079803</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>AlexNet</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Rice_Leaves</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>16</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Brown_Spot</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.2277774512767792</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.4221845865249634</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>AlexNet</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Rice_Leaves</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>16</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Leaf_Smut</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.160183310508728</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.300847589969635</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>AlexNet</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Rice_Leaves</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>16</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Bacterial_Leaf_Blight</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0.1511766016483307</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.2865061461925507</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>AlexNet</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H49" t="inlineStr">
         <is>
           <t>Rice_Leaves</t>
         </is>
